--- a/Tarea2.xlsx
+++ b/Tarea2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmx-my.sharepoint.com/personal/gvera_uv_mx/Documents/FEI/Doctorado/Clases/3 semestre/Optativa I - Tecnologías para Redes Neuronales/Tareas/Tarea2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2835" documentId="14_{5E5B86AD-3499-2548-9357-3233F9F1A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54A217B-D154-7747-A558-F830DEE5DED1}"/>
+  <xr:revisionPtr revIDLastSave="2840" documentId="14_{5E5B86AD-3499-2548-9357-3233F9F1A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0916BADF-D457-7B4B-8E75-119AA7C65781}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20220" tabRatio="844" activeTab="1" xr2:uid="{7680EFFB-FA70-4AC9-9287-EB48F8AB45D7}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20220" tabRatio="844" xr2:uid="{7680EFFB-FA70-4AC9-9287-EB48F8AB45D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="19" r:id="rId1"/>
@@ -40,16 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
-    <t>Identifying the need for an SLR</t>
-  </si>
-  <si>
-    <t>Quasi-Gold Standard sources in manual search</t>
-  </si>
-  <si>
     <t>University of Veracruz, Xalapa, Veracruz, México</t>
-  </si>
-  <si>
-    <t>Dataset para el Aprendizaje de la neurona siguiendo el algoritmo de ajuste de pesos con la regla Delta con activación \emph{tanh</t>
   </si>
   <si>
     <r>
@@ -159,6 +150,15 @@
   </si>
   <si>
     <t>tasa α (alpha)</t>
+  </si>
+  <si>
+    <t>Calculo de épocas</t>
+  </si>
+  <si>
+    <t>Tabla de salidas con los pesos obtenidos</t>
+  </si>
+  <si>
+    <t>Dataset para el Aprendizaje de la neurona siguiendo el algoritmo de ajuste de pesos con la regla Delta con activación tanh</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -912,6 +912,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1287,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1300,7 +1302,7 @@
     <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.83203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.83203125" style="1"/>
@@ -1308,7 +1310,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="35" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -1336,7 +1338,7 @@
     </row>
     <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="B4" s="36" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
@@ -1345,14 +1347,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="39" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="43"/>
@@ -1372,24 +1374,24 @@
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
-        <v>0</v>
+      <c r="B10" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>1</v>
+      <c r="D10" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
@@ -1420,8 +1422,8 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" location="'Related Work Search'!A1" display="Identifying the need for an SLR" xr:uid="{7293FBA0-BEA3-4341-90F5-8F935A2B5551}"/>
-    <hyperlink ref="D10" location="'QGS Sources'!A1" display="Quasi-Gold Standard sources in manual search" xr:uid="{E76881C7-81FB-3F4B-8CAA-EB33D52A1128}"/>
+    <hyperlink ref="B10" location="Epocas_Delta!A1" display="Calculo de épocas" xr:uid="{7293FBA0-BEA3-4341-90F5-8F935A2B5551}"/>
+    <hyperlink ref="D10" location="Salidas!A1" display="Tabla de salidas con los pesos obtenidos" xr:uid="{E76881C7-81FB-3F4B-8CAA-EB33D52A1128}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1431,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8481CBC7-C107-DD47-98AB-C20F2F421C44}">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1448,49 +1450,49 @@
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="M1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1543,19 +1545,19 @@
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -4737,7 +4739,7 @@
       <c r="Q49" s="20">
         <v>47</v>
       </c>
-      <c r="R49" s="21">
+      <c r="R49" s="45">
         <f>AVERAGE(K186:K189)</f>
         <v>4.9655838901789373E-2</v>
       </c>
@@ -11623,9 +11625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC04603D-24C7-294B-AAD6-D7CAA322DA65}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11637,34 +11637,34 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
